--- a/database/grandjeju-테이블명세서.xlsx
+++ b/database/grandjeju-테이블명세서.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\grandjeju\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654EC42-66DA-457E-8B27-D12503A540BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79305604-F5DE-4428-ACC0-EBE0A642BA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>TableName</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>enum('kakaopay','creditcard','payco')</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>결제번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -377,6 +392,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +461,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -755,23 +783,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.69921875" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -784,7 +812,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -797,7 +825,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -843,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -866,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -889,7 +917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -912,7 +940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -935,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -958,7 +986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -981,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1004,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1027,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1050,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1073,7 +1101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1114,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1127,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1145,7 +1173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1168,7 +1196,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1191,7 +1219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1214,7 +1242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1237,7 +1265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>7</v>
       </c>
@@ -1283,7 +1311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1324,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1337,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1355,7 +1383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1378,7 +1406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1401,7 +1429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1442,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1455,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -1473,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1496,38 +1524,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>3</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>76</v>
+      <c r="B42" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
@@ -1539,18 +1563,18 @@
         <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
@@ -1559,21 +1583,21 @@
         <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>13</v>
@@ -1582,21 +1606,21 @@
         <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>13</v>
@@ -1608,18 +1632,18 @@
         <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>13</v>
@@ -1631,18 +1655,18 @@
         <v>19</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>13</v>
@@ -1654,18 +1678,18 @@
         <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
@@ -1677,18 +1701,18 @@
         <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>13</v>
@@ -1700,15 +1724,15 @@
         <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>92</v>
@@ -1723,239 +1747,262 @@
         <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>13</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>1</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>2</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>3</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>4</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>5</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>6</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>7</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>47</v>
       </c>
     </row>
